--- a/data/Redmiphone.xlsx
+++ b/data/Redmiphone.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\com.insurance.Lifeinsurance\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>REDMI 10 (Shadow Black, 64 GB)</t>
   </si>
@@ -97,12 +97,61 @@
   </si>
   <si>
     <t>REDMI 10A (Sea Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>WonRia Camera Lens Protector for Redmi K50i (5g)</t>
+  </si>
+  <si>
+    <t>WonRia Camera Lens Protector for Redmi 11 Prime Camera Glass</t>
+  </si>
+  <si>
+    <t>REDMI A1+ (Light Blue, 32 GB)</t>
+  </si>
+  <si>
+    <t>REDMI A1+ (Light Green, 32 GB)</t>
+  </si>
+  <si>
+    <t>REDMI A1+ (Black, 32 GB)</t>
+  </si>
+  <si>
+    <t>PRITISH Screen Guard for Mi REDMI NOTE 11 5G</t>
+  </si>
+  <si>
+    <t>REDMI 11 Prime (Flashy Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>WonRia Camera Lens Protector for Xiaomi Redmi K50i</t>
+  </si>
+  <si>
+    <t>WonRia Camera Lens Protector for Mi Redmi 11 Prime</t>
+  </si>
+  <si>
+    <t>REDMI 11 Prime (Peppy Purple, 64 GB)</t>
+  </si>
+  <si>
+    <t>PRITISH Screen Guard for Mi Redmi K40</t>
+  </si>
+  <si>
+    <t>PRITISH Screen Guard for Mi Redmi K40 PRO</t>
+  </si>
+  <si>
+    <t>REDMI 21.59cm (8.5-inch) LCD Writing Pad with Smart Lock ABS Material for Kids, Adults</t>
+  </si>
+  <si>
+    <t>PRITISH Screen Guard for Mi Redmi K50</t>
+  </si>
+  <si>
+    <t>STP FEEL Tempered Glass Guard for Redmi 9i Sport Edge To Edge Front Privacy Tempered Glass Guard With ...</t>
+  </si>
+  <si>
+    <t>REDMI 10000 mAh Power Bank (10 W, Fast Charging)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,127 +505,127 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="43.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="10">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
